--- a/Mobile_App_Security_Checklist_en.xlsx
+++ b/Mobile_App_Security_Checklist_en.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studia\9 semestr\Application Security\Mobile\AS-mobile-testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerard Bosacki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CF44A7-EFC1-47CF-B4A9-B9ACCD378CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797DA663-1912-4814-A445-1504064EE0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Security Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="About" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="283">
   <si>
     <t>Mobile Application Security Verification Standard</t>
   </si>
@@ -868,13 +858,25 @@
   </si>
   <si>
     <t>Copyright © 2022 The OWASP Foundation. This work is licensed under a Creative Commons Attribution-ShareAlike 4.0 International License. For any reuse or distribution, you must make clear to others the license terms of this work.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>PASS (added as of 26.11.2022)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,12 +886,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Avenir"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF499FFF"/>
       <name val="Avenir"/>
     </font>
     <font>
@@ -914,14 +910,15 @@
       <name val="Avenir"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,8 +945,14 @@
         <fgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -997,8 +1000,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
@@ -1018,65 +1049,85 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="8">
       <alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
       <alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="7" applyAlignment="1">
       <alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
       <alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="6" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="10">
     <cellStyle name="big_title" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="blue" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="center" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="gray" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="gray_header" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="green" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="orange" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="text" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="underline" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF666666"/>
@@ -1552,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117:K129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1566,41 +1617,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="65.099999999999994" customHeight="1">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="2" t="str">
         <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/releases/tag/v1.5.0", "OWASP MASTG v1.5.0 (commit: 3b9278f)")</f>
         <v>OWASP MASTG v1.5.0 (commit: 3b9278f)</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="str">
         <f>HYPERLINK("https://github.com/OWASP/owasp-masvs/releases/tag/v1.4.2", "OWASP MASVS v1.4.2 (commit: 2a8b582)")</f>
         <v>OWASP MASVS v1.4.2 (commit: 2a8b582)</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="3" t="s">
@@ -1646,6 +1697,18 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
+      <c r="H11" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="54.95" customHeight="1">
       <c r="B12" s="4" t="s">
@@ -1659,9 +1722,17 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
-      <c r="H12" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H12" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="54.95" customHeight="1">
@@ -1676,6 +1747,18 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
+      <c r="H13" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="14" spans="2:11" ht="54.95" customHeight="1">
       <c r="B14" s="4" t="s">
@@ -1689,6 +1772,18 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
+      <c r="H14" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="15" spans="2:11" ht="54.95" customHeight="1">
       <c r="B15" s="4" t="s">
@@ -1701,6 +1796,18 @@
         <v>26</v>
       </c>
       <c r="F15" s="7"/>
+      <c r="H15" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="16" spans="2:11" ht="54.95" customHeight="1">
       <c r="B16" s="4" t="s">
@@ -1713,6 +1820,18 @@
         <v>29</v>
       </c>
       <c r="F16" s="7"/>
+      <c r="H16" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="17" spans="2:11" ht="54.95" customHeight="1">
       <c r="B17" s="4" t="s">
@@ -1725,6 +1844,18 @@
         <v>32</v>
       </c>
       <c r="F17" s="7"/>
+      <c r="H17" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="18" spans="2:11" ht="54.95" customHeight="1">
       <c r="B18" s="4" t="s">
@@ -1737,6 +1868,18 @@
         <v>35</v>
       </c>
       <c r="F18" s="7"/>
+      <c r="H18" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="19" spans="2:11" ht="54.95" customHeight="1">
       <c r="B19" s="4" t="s">
@@ -1749,13 +1892,17 @@
         <v>38</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="I19" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J19" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06h-Testing-Platform-Interaction.md#testing-enforced-updating-mstg-arch-9", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H19" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="54.95" customHeight="1">
@@ -1769,6 +1916,18 @@
         <v>41</v>
       </c>
       <c r="F20" s="7"/>
+      <c r="H20" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="21" spans="2:11" ht="54.95" customHeight="1">
       <c r="B21" s="4" t="s">
@@ -1781,6 +1940,18 @@
         <v>44</v>
       </c>
       <c r="F21" s="7"/>
+      <c r="H21" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="22" spans="2:11" ht="54.95" customHeight="1">
       <c r="B22" s="4" t="s">
@@ -1794,20 +1965,32 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
+      <c r="H22" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="24" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="3" t="s">
@@ -1853,13 +2036,17 @@
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="I28" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J28" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H28" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="54.95" customHeight="1">
@@ -1874,13 +2061,17 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="7"/>
-      <c r="I29" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J29" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H29" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="54.95" customHeight="1">
@@ -1895,13 +2086,17 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
-      <c r="I30" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data-mstg-storage-3", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J30" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data-mstg-storage-3", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H30" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="54.95" customHeight="1">
@@ -1916,13 +2111,17 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
-      <c r="I31" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-shared-with-third-parties-mstg-storage-4", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J31" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-shared-with-third-parties-mstg-storage-4", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H31" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="54.95" customHeight="1">
@@ -1937,13 +2136,17 @@
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
-      <c r="I32" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields-mstg-storage-5", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J32" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache-mstg-storage-5", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H32" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="54.95" customHeight="1">
@@ -1958,13 +2161,17 @@
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
-      <c r="I33" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms-mstg-storage-6", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J33" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms-mstg-storage-6", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H33" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="54.95" customHeight="1">
@@ -1979,13 +2186,17 @@
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
-      <c r="I34" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface-mstg-storage-7", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J34" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface-mstg-storage-7", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H34" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="54.95" customHeight="1">
@@ -1999,13 +2210,17 @@
         <v>72</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="I35" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J35" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data-mstg-storage-8", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H35" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="54.95" customHeight="1">
@@ -2019,13 +2234,17 @@
         <v>75</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="I36" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots-mstg-storage-9", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J36" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information-mstg-storage-9", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H36" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="54.95" customHeight="1">
@@ -2039,13 +2258,17 @@
         <v>78</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="I37" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05d-Testing-Data-Storage.md#testing-memory-for-sensitive-data-mstg-storage-10", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J37" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data-mstg-storage-10", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H37" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="54.95" customHeight="1">
@@ -2059,13 +2282,17 @@
         <v>81</v>
       </c>
       <c r="F38" s="7"/>
-      <c r="I38" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J38" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H38" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="54.95" customHeight="1">
@@ -2080,9 +2307,17 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="H39" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04i-Testing-User-Privacy-Protection.md#testing-user-education-mstg-storage-12", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H39" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="54.95" customHeight="1">
@@ -2096,6 +2331,18 @@
         <v>87</v>
       </c>
       <c r="F40" s="7"/>
+      <c r="H40" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="41" spans="2:11" ht="54.95" customHeight="1">
       <c r="B41" s="4" t="s">
@@ -2108,6 +2355,18 @@
         <v>90</v>
       </c>
       <c r="F41" s="7"/>
+      <c r="H41" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="42" spans="2:11" ht="54.95" customHeight="1">
       <c r="B42" s="4" t="s">
@@ -2120,20 +2379,32 @@
         <v>93</v>
       </c>
       <c r="F42" s="7"/>
+      <c r="H42" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="44" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="3" t="s">
@@ -2179,17 +2450,17 @@
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="H48" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="I48" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05e-Testing-Cryptography.md#testing-symmetric-cryptography-mstg-crypto-1", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J48" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H48" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="54.95" customHeight="1">
@@ -2204,17 +2475,17 @@
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
-      <c r="H49" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="I49" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J49" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H49" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="54.95" customHeight="1">
@@ -2229,17 +2500,17 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
-      <c r="H50" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04g-Testing-Cryptography.md#common-configuration-issues-mstg-crypto-1-mstg-crypto-2-and-mstg-crypto-3", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="I50" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J50" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-and-mstg-crypto-3", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H50" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="54.95" customHeight="1">
@@ -2254,13 +2525,17 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="H51" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms-mstg-crypto-4", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="I51" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05e-Testing-Cryptography.md#testing-the-configuration-of-cryptographic-standard-algorithms-mstg-crypto-2-mstg-crypto-3-and-mstg-crypto-4", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H51" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="54.95" customHeight="1">
@@ -2275,13 +2550,17 @@
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
-      <c r="I52" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05e-Testing-Cryptography.md#testing-the-purposes-of-keys-mstg-crypto-5", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J52" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06e-Testing-Cryptography.md#testing-key-management-mstg-crypto-1-and-mstg-crypto-5", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H52" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="54.95" customHeight="1">
@@ -2296,28 +2575,32 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="7"/>
-      <c r="I53" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J53" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06e-Testing-Cryptography.md#testing-random-number-generation-mstg-crypto-6", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H53" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="3" t="s">
@@ -2363,13 +2646,17 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="7"/>
-      <c r="H59" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-appropriate-authentication-is-in-place-mstg-arch-2-and-mstg-auth-1", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="I59" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05f-Testing-Local-Authentication.md#testing-confirm-credentials-mstg-auth-1-and-mstg-storage-11", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H59" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="54.95" customHeight="1">
@@ -2384,9 +2671,17 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="7"/>
-      <c r="H60" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management-mstg-auth-2", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H60" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="54.95" customHeight="1">
@@ -2401,9 +2696,17 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="7"/>
-      <c r="H61" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication-mstg-auth-3", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H61" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="54.95" customHeight="1">
@@ -2418,9 +2721,17 @@
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="7"/>
-      <c r="H62" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H62" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="2:11" ht="54.95" customHeight="1">
@@ -2435,9 +2746,17 @@
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="7"/>
-      <c r="H63" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H63" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="54.95" customHeight="1">
@@ -2452,9 +2771,17 @@
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="7"/>
-      <c r="H64" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04e-Testing-Authentication-and-Session-Management.md#testing-best-practices-for-passwords-mstg-auth-5-and-mstg-auth-6", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H64" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="54.95" customHeight="1">
@@ -2469,9 +2796,17 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
-      <c r="H65" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04e-Testing-Authentication-and-Session-Management.md#testing-session-timeout-mstg-auth-7", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H65" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="54.95" customHeight="1">
@@ -2485,13 +2820,17 @@
         <v>137</v>
       </c>
       <c r="F66" s="7"/>
-      <c r="I66" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05f-Testing-Local-Authentication.md#testing-biometric-authentication-mstg-auth-8", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J66" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06f-Testing-Local-Authentication.md#testing-local-authentication-mstg-auth-8-and-mstg-storage-11", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H66" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="2:11" ht="54.95" customHeight="1">
@@ -2505,9 +2844,17 @@
         <v>140</v>
       </c>
       <c r="F67" s="7"/>
-      <c r="H67" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H67" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="2:11" ht="54.95" customHeight="1">
@@ -2521,9 +2868,17 @@
         <v>143</v>
       </c>
       <c r="F68" s="7"/>
-      <c r="H68" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04e-Testing-Authentication-and-Session-Management.md#testing-two-factor-authentication-and-step-up-authentication-mstg-auth-9-and-mstg-auth-10", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H68" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="54.95" customHeight="1">
@@ -2537,9 +2892,17 @@
         <v>146</v>
       </c>
       <c r="F69" s="7"/>
-      <c r="H69" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04e-Testing-Authentication-and-Session-Management.md#testing-login-activity-and-device-blocking-mstg-auth-11", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H69" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="2:11" ht="54.95" customHeight="1">
@@ -2554,20 +2917,32 @@
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="7"/>
+      <c r="H70" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="72" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="3" t="s">
@@ -2613,17 +2988,17 @@
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="7"/>
-      <c r="H76" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network-mstg-network-1", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="I76" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05g-Testing-Network-Communication.md#testing-data-encryption-on-the-network-mstg-network-1", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J76" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06g-Testing-Network-Communication.md#testing-data-encryption-on-the-network-mstg-network-1", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H76" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="54.95" customHeight="1">
@@ -2638,17 +3013,17 @@
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="7"/>
-      <c r="H77" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04f-Testing-Network-Communication.md#verifying-the-tls-settings-mstg-network-2", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="I77" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05g-Testing-Network-Communication.md#testing-the-tls-settings-mstg-network-2", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J77" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06g-Testing-Network-Communication.md#testing-the-tls-settings-mstg-network-2", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H77" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="2:11" ht="54.95" customHeight="1">
@@ -2663,13 +3038,17 @@
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="7"/>
-      <c r="I78" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification-mstg-network-3", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J78" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06g-Testing-Network-Communication.md#testing-endpoint-identity-verification-mstg-network-3", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H78" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="2:11" ht="54.95" customHeight="1">
@@ -2683,13 +3062,17 @@
         <v>162</v>
       </c>
       <c r="F79" s="7"/>
-      <c r="I79" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-4", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J79" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning-mstg-network-4", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H79" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="2:11" ht="54.95" customHeight="1">
@@ -2703,9 +3086,17 @@
         <v>165</v>
       </c>
       <c r="F80" s="7"/>
-      <c r="H80" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels-mstg-network-5", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H80" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="54.95" customHeight="1">
@@ -2719,24 +3110,32 @@
         <v>168</v>
       </c>
       <c r="F81" s="7"/>
-      <c r="I81" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05g-Testing-Network-Communication.md#testing-the-security-provider-mstg-network-6", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H81" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="3" t="s">
@@ -2782,13 +3181,17 @@
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="7"/>
-      <c r="I87" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J87" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06h-Testing-Platform-Interaction.md#testing-app-permissions-mstg-platform-1", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H87" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="2:11" ht="54.95" customHeight="1">
@@ -2803,13 +3206,17 @@
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="7"/>
-      <c r="H88" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04h-Testing-Code-Quality.md#injection-flaws-mstg-arch-2-and-mstg-platform-2", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="I88" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05h-Testing-Platform-Interaction.md#testing-for-injection-flaws-mstg-platform-2", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H88" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="54.95" customHeight="1">
@@ -2824,13 +3231,17 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="7"/>
-      <c r="I89" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05h-Testing-Platform-Interaction.md#testing-deep-links-mstg-platform-3", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J89" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes-mstg-platform-3", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H89" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="2:11" ht="54.95" customHeight="1">
@@ -2845,13 +3256,17 @@
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="7"/>
-      <c r="I90" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J90" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc-mstg-platform-4", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H90" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="2:11" ht="54.95" customHeight="1">
@@ -2866,13 +3281,17 @@
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="7"/>
-      <c r="I91" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews-mstg-platform-5", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J91" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06h-Testing-Platform-Interaction.md#testing-ios-webviews-mstg-platform-5", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H91" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="2:11" ht="54.95" customHeight="1">
@@ -2887,13 +3306,17 @@
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="7"/>
-      <c r="I92" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J92" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers-mstg-platform-6", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H92" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K92" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="2:11" ht="54.95" customHeight="1">
@@ -2908,13 +3331,17 @@
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="7"/>
-      <c r="I93" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews-mstg-platform-7", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J93" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews-mstg-platform-7", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H93" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="2:11" ht="54.95" customHeight="1">
@@ -2929,13 +3356,17 @@
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="7"/>
-      <c r="I94" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J94" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06h-Testing-Platform-Interaction.md#testing-object-persistence-mstg-platform-8", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H94" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="2:11" ht="54.95" customHeight="1">
@@ -2949,9 +3380,17 @@
         <v>196</v>
       </c>
       <c r="F95" s="7"/>
-      <c r="I95" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05h-Testing-Platform-Interaction.md#testing-for-overlay-attacks-mstg-platform-9", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H95" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="96" spans="2:11" ht="54.95" customHeight="1">
@@ -2965,6 +3404,18 @@
         <v>199</v>
       </c>
       <c r="F96" s="7"/>
+      <c r="H96" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="97" spans="2:11" ht="54.95" customHeight="1">
       <c r="B97" s="4" t="s">
@@ -2977,20 +3428,32 @@
         <v>202</v>
       </c>
       <c r="F97" s="7"/>
+      <c r="H97" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="99" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" s="3" t="s">
@@ -3036,13 +3499,17 @@
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="7"/>
-      <c r="I103" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J103" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed-mstg-code-1", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H103" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K103" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="2:11" ht="54.95" customHeight="1">
@@ -3057,13 +3524,17 @@
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="7"/>
-      <c r="I104" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-whether-the-app-is-debuggable-mstg-code-2", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J104" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable-mstg-code-2", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H104" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="2:11" ht="54.95" customHeight="1">
@@ -3078,13 +3549,17 @@
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="7"/>
-      <c r="I105" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-symbols-mstg-code-3", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J105" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols-mstg-code-3", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H105" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="2:11" ht="54.95" customHeight="1">
@@ -3099,13 +3574,17 @@
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="7"/>
-      <c r="I106" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-for-debugging-code-and-verbose-error-logging-mstg-code-4", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J106" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging-mstg-code-4", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H106" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K106" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="2:11" ht="54.95" customHeight="1">
@@ -3120,13 +3599,17 @@
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="7"/>
-      <c r="I107" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J107" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries-mstg-code-5", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H107" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="2:11" ht="54.95" customHeight="1">
@@ -3141,13 +3624,17 @@
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="7"/>
-      <c r="I108" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J108" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H108" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="2:11" ht="54.95" customHeight="1">
@@ -3162,9 +3649,17 @@
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="7"/>
-      <c r="I109" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling-mstg-code-6-and-mstg-code-7", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H109" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K109" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="2:11" ht="54.95" customHeight="1">
@@ -3179,17 +3674,17 @@
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="7"/>
-      <c r="H110" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x04h-Testing-Code-Quality.md#memory-corruption-bugs-mstg-code-8", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="I110" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs-mstg-code-8", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J110" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs-mstg-code-8", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H110" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K110" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="2:11" ht="54.95" customHeight="1">
@@ -3204,28 +3699,32 @@
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="7"/>
-      <c r="I111" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J111" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated-mstg-code-9", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="H111" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="3" t="s">
@@ -3269,14 +3768,18 @@
       <c r="D117" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G117" s="9"/>
-      <c r="I117" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection-mstg-resilience-1", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J117" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection-mstg-resilience-1", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="G117" s="14"/>
+      <c r="H117" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K117" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="2:11" ht="54.95" customHeight="1">
@@ -3289,14 +3792,18 @@
       <c r="D118" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G118" s="9"/>
-      <c r="I118" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging-detection-mstg-resilience-2", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J118" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging-detection-mstg-resilience-2", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="G118" s="14"/>
+      <c r="H118" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K118" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="2:11" ht="54.95" customHeight="1">
@@ -3309,14 +3816,18 @@
       <c r="D119" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G119" s="9"/>
-      <c r="I119" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks-mstg-resilience-3", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J119" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="G119" s="14"/>
+      <c r="H119" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J119" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K119" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="2:11" ht="54.95" customHeight="1">
@@ -3329,14 +3840,18 @@
       <c r="D120" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G120" s="9"/>
-      <c r="I120" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-reverse-engineering-tools-detection-mstg-resilience-4", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J120" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-reverse-engineering-tools-detection-mstg-resilience-4", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="G120" s="14"/>
+      <c r="H120" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J120" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K120" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="2:11" ht="54.95" customHeight="1">
@@ -3349,14 +3864,18 @@
       <c r="D121" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G121" s="9"/>
-      <c r="I121" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection-mstg-resilience-5", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J121" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection-mstg-resilience-5", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="G121" s="14"/>
+      <c r="H121" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K121" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="2:11" ht="54.95" customHeight="1">
@@ -3369,10 +3888,18 @@
       <c r="D122" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G122" s="9"/>
-      <c r="I122" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-runtime-integrity-checks-mstg-resilience-6", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="G122" s="14"/>
+      <c r="H122" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K122" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="2:11" ht="54.95" customHeight="1">
@@ -3385,7 +3912,19 @@
       <c r="D123" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G123" s="9"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K123" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="124" spans="2:11" ht="54.95" customHeight="1">
       <c r="B124" s="4" t="s">
@@ -3397,7 +3936,19 @@
       <c r="D124" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G124" s="9"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K124" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="125" spans="2:11" ht="54.95" customHeight="1">
       <c r="B125" s="4" t="s">
@@ -3409,14 +3960,18 @@
       <c r="D125" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G125" s="9"/>
-      <c r="I125" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J125" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation-mstg-resilience-9", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="G125" s="14"/>
+      <c r="H125" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K125" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="2:11" ht="54.95" customHeight="1">
@@ -3429,14 +3984,18 @@
       <c r="D126" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G126" s="9"/>
-      <c r="I126" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding-mstg-resilience-10", "Test Case")</f>
-        <v>Test Case</v>
-      </c>
-      <c r="J126" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding-mstg-resilience-10", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="G126" s="14"/>
+      <c r="H126" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J126" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K126" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="2:11" ht="54.95" customHeight="1">
@@ -3449,10 +4008,18 @@
       <c r="D127" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G127" s="9"/>
-      <c r="J127" s="8" t="str">
-        <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/blob/master/Document/0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks-mstg-resilience-3-and-mstg-resilience-11", "Test Case")</f>
-        <v>Test Case</v>
+      <c r="G127" s="14"/>
+      <c r="H127" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K127" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="2:11" ht="54.95" customHeight="1">
@@ -3465,9 +4032,21 @@
       <c r="D128" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G128" s="9"/>
-    </row>
-    <row r="129" spans="2:7" ht="54.95" customHeight="1">
+      <c r="G128" s="14"/>
+      <c r="H128" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K128" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" ht="54.95" customHeight="1">
       <c r="B129" s="4" t="s">
         <v>268</v>
       </c>
@@ -3477,7 +4056,19 @@
       <c r="D129" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G129" s="9"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K129" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3491,24 +4082,31 @@
     <mergeCell ref="B44:K44"/>
     <mergeCell ref="B55:K55"/>
   </mergeCells>
-  <conditionalFormatting sqref="K11:K400">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",K11)))</formula>
+  <conditionalFormatting sqref="K23:K27 K43:K47 K54:K58 K71:K75 K82:K86 K98:K102 K112:K116 K130:K400">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",K23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",K11)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",K23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",K11)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",K23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K22 K28:K42 K48:K53 K59:K70 K76:K81 K87:K97 K103:K111 K117:K129" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Pass,Fail,N/A"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3528,55 +4126,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="65.099999999999994" customHeight="1">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="2" t="str">
         <f>HYPERLINK("https://github.com/OWASP/owasp-mastg/releases/tag/v1.5.0", "OWASP MASTG v1.5.0 (commit: 3b9278f)")</f>
         <v>OWASP MASTG v1.5.0 (commit: 3b9278f)</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="str">
         <f>HYPERLINK("https://github.com/OWASP/owasp-masvs/releases/tag/v1.4.2", "OWASP MASVS v1.4.2 (commit: 2a8b582)")</f>
         <v>OWASP MASVS v1.4.2 (commit: 2a8b582)</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="str">
@@ -3585,18 +4183,18 @@
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="str">
@@ -3605,18 +4203,18 @@
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" t="str">
@@ -3625,32 +4223,32 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" t="str">
@@ -3659,32 +4257,32 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" t="str">
